--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="4">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>8.449999999999999</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="4">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="4">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="4">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="4">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="4">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>11.45</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="4">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.48</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>4.89</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="4">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3.76</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="4">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="4">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>3.3</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>20.92</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="47" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="55" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>4.99</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="4">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="4">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" ht="12.8" customHeight="1" s="4">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="60" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63" ht="12.8" customHeight="1" s="4">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="4">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="65" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>5.54</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>4.79</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="4">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="4">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="4">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" ht="12.8" customHeight="1" s="4">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="73" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>7.16</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="4">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="4">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="83" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="4">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>8.34</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="4">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.15</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="4">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.27</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="4">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="4">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="4">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="4">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="4">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="4">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="4">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>10.62</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="4">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="4">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.78</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="4">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="4">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="4">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>4.21</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>20.22</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="47" ht="12.8" customHeight="1" s="4">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>4.89</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="4">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="4">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" ht="12.8" customHeight="1" s="4">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="63" ht="12.8" customHeight="1" s="4">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="4">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="65" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>5.45</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="4">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="4">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0.66</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="4">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="72" ht="12.8" customHeight="1" s="4">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="73" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>7.15</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="77" ht="12.8" customHeight="1" s="4">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>1.66</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="4">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="81" ht="12.8" customHeight="1" s="4">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="4">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="83" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85" ht="12.8" customHeight="1" s="4">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="86" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="88" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="4">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>8.4</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="4">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.68</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="4">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.84</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="4">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="4">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>11.12</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.08</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>5.19</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="4">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="4">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="4">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>21.56</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="55" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="4">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="4">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="60" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="62" ht="12.8" customHeight="1" s="4">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="63" ht="12.8" customHeight="1" s="4">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>4.82</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>4.57</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="4">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="4">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="4">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="73" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.99</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>7.32</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="77" ht="12.8" customHeight="1" s="4">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="78" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="85" ht="12.8" customHeight="1" s="4">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="86" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.74</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>8.44</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.39</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="4">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.83</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="4">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="4">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="4">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="4">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>10.98</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="4">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.53</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>5.43</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="4">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.08</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="4">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>4.28</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.36</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="47" ht="12.8" customHeight="1" s="4">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>5.42</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="4">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="4">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="60" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="63" ht="12.8" customHeight="1" s="4">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>4.77</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>4.1</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="4">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="4">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="4">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="72" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>7.04</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="78" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="4">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="81" ht="12.8" customHeight="1" s="4">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="4">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="83" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="86" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.78</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.09</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="4">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="4">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="4">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.44</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>5.7</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>20.41</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="55" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>5.6</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>6.23</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.42</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="4">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>8.710000000000001</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.32</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="4">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.33</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="4">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="4">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="4">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="4">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="4">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>10.49</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="4">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.53</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>5.81</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="4">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3.41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>1.02</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="4">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="4">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>4.13</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>20.11</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>5.47</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="4">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="4">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="60" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="4">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="65" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>3.54</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>3.97</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="4">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="4">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="4">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="72" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>6.15</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77" ht="12.8" customHeight="1" s="4">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="4">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.67</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="4">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>8.74</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.18</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="4">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.43</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="4">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="4">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="4">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.06</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="4">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="4">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="4">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="4">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="4">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="4">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>10.66</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="4">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="4">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="4">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="4">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.19</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="4">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="4">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="4">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="4">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="4">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="4">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="4">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="4">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>3</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="4">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="4">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="4">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="4">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.7</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="4">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="4">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="4">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>20.3</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="4">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="4">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="47" ht="12.8" customHeight="1" s="4">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="4">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="4">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="4">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="4">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="55" ht="12.8" customHeight="1" s="4">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>5.79</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="4">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="4">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="60" ht="12.8" customHeight="1" s="4">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="4">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" ht="12.8" customHeight="1" s="4">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="4">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="65" ht="12.8" customHeight="1" s="4">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>4.27</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="4">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>4.04</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="4">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="4">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="4">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="4">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="4">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="72" ht="12.8" customHeight="1" s="4">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="4">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>6.92</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="4">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="4">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="77" ht="12.8" customHeight="1" s="4">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="78" ht="12.8" customHeight="1" s="4">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="4">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="4">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" ht="12.8" customHeight="1" s="4">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="4">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="83" ht="12.8" customHeight="1" s="4">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="4">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="85" ht="12.8" customHeight="1" s="4">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="86" ht="12.8" customHeight="1" s="4">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="87" ht="12.8" customHeight="1" s="4">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="88" ht="12.8" customHeight="1" s="4">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="89" ht="12.8" customHeight="1" s="4">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8.19</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7.51</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5.96</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>12.66</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>7</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>5.83</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>3.04</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5.71</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2.71</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>22.45</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5.82</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>4.55</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>3.83</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7.36</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>4.13</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8.380000000000001</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5.99</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.28</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>12.88</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>3.28</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>20.78</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5.54</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>4.73</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>4.16</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>6.76</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8.23</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4.84</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.35</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>13.02</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>5.89</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6.09</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>3.64</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>3.56</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>20.54</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5.48</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>4.66</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>6.51</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7.82</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.69</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>13.61</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6.37</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5.54</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>4.12</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>21.12</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>6.7</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>4.38</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7.35</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">

--- a/kittyCommanderDeck.xlsx
+++ b/kittyCommanderDeck.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7.57</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7.8</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7.44</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.11</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>14.36</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6.6</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6.75</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>6.28</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>4.35</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>21.64</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>6.93</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>3.85</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>3.38</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7.64</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>2.98</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
